--- a/biology/Botanique/Honckénye_faux-pourpier/Honckénye_faux-pourpier.xlsx
+++ b/biology/Botanique/Honckénye_faux-pourpier/Honckénye_faux-pourpier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Honck%C3%A9nye_faux-pourpier</t>
+          <t>Honckénye_faux-pourpier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sabline faux-péplus, Pourpier de mer, Honckénye faux-pourpier
-La Sabline faux-péplus (Honckenya peploides), communément appelée Pourpier de mer [1], ou bien Honckénye faux-pourpier au Canada[2], est une plante vivace de la famille des Caryophyllacées qui pousse sur le littoral atlantique.
+La Sabline faux-péplus (Honckenya peploides), communément appelée Pourpier de mer , ou bien Honckénye faux-pourpier au Canada, est une plante vivace de la famille des Caryophyllacées qui pousse sur le littoral atlantique.
 C'est une plante à port prostré, aux feuilles charnues opposées. Les fleurs sont petites, d'un blanc verdâtre.
 Elle doit son nom vernaculaire de Pourpier de mer à sa ressemblance avec le Pourpier potager (Portulaca oleracea), qui possède également des feuilles charnues.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Honck%C3%A9nye_faux-pourpier</t>
+          <t>Honckénye_faux-pourpier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Feuilles opposées charnues, vert clair, luisantes, non pétiolées, disposées sur quatre rangs en forme de croix de façon serrée.
 Fleurs unisexuées, à 5 pétales blancs développés uniquement chez les fleurs mâles.</t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Honck%C3%A9nye_faux-pourpier</t>
+          <t>Honckénye_faux-pourpier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sable des plages et des dunes.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Honck%C3%A9nye_faux-pourpier</t>
+          <t>Honckénye_faux-pourpier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Littoraux de l'ouest de l'Europe, du Portugal jusqu'à la Baltique, ainsi qu'au Groenland et en Amérique du Nord[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Littoraux de l'ouest de l'Europe, du Portugal jusqu'à la Baltique, ainsi qu'au Groenland et en Amérique du Nord.
 </t>
         </is>
       </c>
